--- a/biology/Botanique/Grammatophoraceae/Grammatophoraceae.xlsx
+++ b/biology/Botanique/Grammatophoraceae/Grammatophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Grammatophoraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Rhabdonematales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Grammatophora, de gramm-, « raie, ligne » (du grec γράφω / grapho, « tracer des lignes ; écrire »), et φόρος / phoros, porter, en référence à l'ornementation de ces diatomées.
 </t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (28 mai 2022)[1], les espèces de cette familles ont des frustules généralement tabulés, formant :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (28 mai 2022), les espèces de cette familles ont des frustules généralement tabulés, formant :
 soit des rubans, quand les frustules sont réunies par les faces des valves,
 soit des chaînes en zigzag, quand les frustules sont réunies par les champs de pores apicaux[note 1].
-Les champs de pores apicaux ne sont pas enfoncés. Les parois de la valve et des copula[note 2],[2] ne sont constituées que d'une couche siliceuse basale, non élaborées ou chambrées. Chacune des valves de ces diatomées possèdent deux rimoportules [note 3],[2].
+Les champs de pores apicaux ne sont pas enfoncés. Les parois de la valve et des copula[note 2], ne sont constituées que d'une couche siliceuse basale, non élaborées ou chambrées. Chacune des valves de ces diatomées possèdent deux rimoportules [note 3],.
 </t>
         </is>
       </c>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,9 +620,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (28 mai 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (28 mai 2022) :
 Grammatophora Ehrenberg, 1840  - genre type
 Hanicella C.S.Lobban &amp; M.P.Ashworth, 2014
 Hyalosira Küzing, 1844
@@ -636,9 +656,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Grammatophoraceae Lobban &amp; Ashworth, 2014[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Grammatophoraceae Lobban &amp; Ashworth, 2014.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>C.S. Lobban et M.P. Ashworth, 2014, « Hanicella moenia, gen. et sp. nov., a ribbon-forming diatom (Bacillariophyta) with complex girdle bands, compared to Microtabella interrupta and Rhabdonema cf. adriaticum: implications for Striatellales, Rhabdonematales, and Grammatophoracea, fam. nov. ». Journal of Phycology, vol. 50, n. 5, p. 860-884.</t>
         </is>
